--- a/Output_Data/output_Data_00000031.xlsx
+++ b/Output_Data/output_Data_00000031.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adithya\Documents\UiPath\Task\Output_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD521F8-0B39-4111-93F5-4FE8E10CC754}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051E21F6-A343-44FA-A7F3-519C3A95D182}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7900" yWindow="5750" windowWidth="6410" windowHeight="3270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8240" yWindow="6090" windowWidth="6410" windowHeight="3270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>INVOICE</t>
   </si>
@@ -72,13 +72,19 @@
     <t>(Company Name)</t>
   </si>
   <si>
+    <t>(Department Name)</t>
+  </si>
+  <si>
+    <t>917: GENERAL DIRECTORATE OF RESIDENCY AN</t>
+  </si>
+  <si>
     <t>1-2019-20095</t>
   </si>
   <si>
     <t>2013-TOYOTA-HIACE</t>
   </si>
   <si>
-    <t>A19031</t>
+    <t>A79003</t>
   </si>
   <si>
     <t>04465-26421-0 N/A; PAD KIT FR DIS 04495-26240-0</t>
@@ -272,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -288,7 +294,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -576,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H37"/>
+  <dimension ref="B1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -596,12 +603,12 @@
     <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:8" ht="21" x14ac:dyDescent="0.5">
       <c r="B2" s="5"/>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
       <c r="G2" s="6"/>
       <c r="H2" s="1"/>
     </row>
@@ -611,13 +618,13 @@
         <v>14</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="13">
+      <c r="F3" s="14">
         <v>43713</v>
       </c>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4" s="7"/>
@@ -643,7 +650,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -651,11 +658,11 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" s="7"/>
-      <c r="C7" s="2" t="s">
-        <v>2</v>
+      <c r="C7" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -664,10 +671,10 @@
     <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" s="7"/>
       <c r="C8" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -675,8 +682,12 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B9" s="7"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="8"/>
@@ -691,9 +702,7 @@
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B11" s="7"/>
-      <c r="C11" s="9" t="s">
-        <v>11</v>
-      </c>
+      <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -701,42 +710,36 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B12" s="7"/>
-      <c r="C12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="C12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B13" s="7"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="C13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="G13" s="8"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B14" s="7"/>
-      <c r="C14" s="4">
-        <v>1</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="4">
-        <v>250.22</v>
-      </c>
-      <c r="F14" s="4">
-        <v>250.22</v>
-      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
       <c r="G14" s="8"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.35">
@@ -745,13 +748,13 @@
         <v>1</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E15" s="4">
-        <v>134.72999999999999</v>
+        <v>250.22</v>
       </c>
       <c r="F15" s="4">
-        <v>134.72999999999999</v>
+        <v>250.22</v>
       </c>
       <c r="G15" s="8"/>
     </row>
@@ -761,13 +764,13 @@
         <v>1</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E16" s="4">
-        <v>8</v>
+        <v>134.72999999999999</v>
       </c>
       <c r="F16" s="4">
-        <v>8</v>
+        <v>134.72999999999999</v>
       </c>
       <c r="G16" s="8"/>
     </row>
@@ -777,38 +780,46 @@
         <v>1</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17" s="4">
-        <v>124.68</v>
+        <v>8</v>
       </c>
       <c r="F17" s="4">
-        <v>124.68</v>
+        <v>8</v>
       </c>
       <c r="G17" s="8"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B18" s="7"/>
       <c r="C18" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E18" s="4">
-        <v>33.880000000000003</v>
+        <v>124.68</v>
       </c>
       <c r="F18" s="4">
-        <v>135.52000000000001</v>
+        <v>124.68</v>
       </c>
       <c r="G18" s="8"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B19" s="7"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
+      <c r="C19" s="4">
+        <v>4</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="4">
+        <v>33.880000000000003</v>
+      </c>
+      <c r="F19" s="4">
+        <v>135.52000000000001</v>
+      </c>
       <c r="G19" s="8"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.35">
@@ -821,17 +832,15 @@
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B21" s="7"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
       <c r="G21" s="8"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B22" s="7"/>
-      <c r="C22" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -839,57 +848,51 @@
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B23" s="7"/>
-      <c r="C23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="C23" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
       <c r="G23" s="8"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B24" s="7"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
+      <c r="C24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="G24" s="8"/>
     </row>
-    <row r="25" spans="2:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B25" s="7"/>
-      <c r="C25" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" s="4">
-        <v>150.04</v>
-      </c>
-      <c r="F25" s="4">
-        <v>37.51</v>
-      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
       <c r="G25" s="8"/>
     </row>
     <row r="26" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B26" s="7"/>
       <c r="C26" s="4">
-        <v>1</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>23</v>
+        <v>0.25</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="E26" s="4">
-        <v>150</v>
+        <v>150.04</v>
       </c>
       <c r="F26" s="4">
-        <v>150</v>
+        <v>37.51</v>
       </c>
       <c r="G26" s="8"/>
     </row>
@@ -898,8 +901,8 @@
       <c r="C27" s="4">
         <v>1</v>
       </c>
-      <c r="D27" s="14" t="s">
-        <v>23</v>
+      <c r="D27" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="E27" s="4">
         <v>150</v>
@@ -909,12 +912,20 @@
       </c>
       <c r="G27" s="8"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B28" s="7"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
+      <c r="C28" s="4">
+        <v>1</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="4">
+        <v>150</v>
+      </c>
+      <c r="F28" s="4">
+        <v>150</v>
+      </c>
       <c r="G28" s="8"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.35">
@@ -927,22 +938,18 @@
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B30" s="7"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
       <c r="G30" s="8"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B31" s="7"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F31" s="2">
-        <v>653.15</v>
-      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
       <c r="G31" s="8"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.35">
@@ -950,10 +957,10 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F32" s="2">
-        <v>337.51</v>
+        <v>653.15</v>
       </c>
       <c r="G32" s="8"/>
     </row>
@@ -962,10 +969,10 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F33" s="2">
-        <v>0</v>
+        <v>337.51</v>
       </c>
       <c r="G33" s="8"/>
     </row>
@@ -974,10 +981,10 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F34" s="2">
-        <v>990.66</v>
+        <v>0</v>
       </c>
       <c r="G34" s="8"/>
     </row>
@@ -986,10 +993,10 @@
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F35" s="2">
-        <v>49.53</v>
+        <v>990.66</v>
       </c>
       <c r="G35" s="8"/>
     </row>
@@ -998,20 +1005,32 @@
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F36" s="16">
+        <v>30</v>
+      </c>
+      <c r="F36" s="2">
+        <v>49.53</v>
+      </c>
+      <c r="G36" s="8"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B37" s="7"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F37" s="17">
         <v>1040.19</v>
       </c>
-      <c r="G36" s="8"/>
-    </row>
-    <row r="37" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="10"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="12"/>
+      <c r="G37" s="8"/>
+    </row>
+    <row r="38" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B38" s="10"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
